--- a/data/mhn_-_moedas-de-ouro_levissimo.csv.xlsx
+++ b/data/mhn_-_moedas-de-ouro_levissimo.csv.xlsx
@@ -94,7 +94,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Capitalize as inicais de nomes próprios e da primeira palavra, para outros termos use letras minúsculas</t>
+    <t>Capitalizar as inicais de nomes próprios e da primeira palavra, para outros termos use letras minúsculas</t>
   </si>
   <si>
     <t>Evitar abreviações</t>
